--- a/Code/Results/Cases/Case_3_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.025005412927925</v>
+        <v>0.8033754279506979</v>
       </c>
       <c r="C2">
-        <v>0.1010770289410345</v>
+        <v>0.04961386267486034</v>
       </c>
       <c r="D2">
-        <v>0.05175565807871862</v>
+        <v>0.09646837582005929</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.119241738546457</v>
+        <v>2.287199385550934</v>
       </c>
       <c r="G2">
-        <v>0.8527945746918277</v>
+        <v>1.601005413721211</v>
       </c>
       <c r="H2">
-        <v>0.6279054135193007</v>
+        <v>1.451213742430042</v>
       </c>
       <c r="I2">
-        <v>0.6655473031315893</v>
+        <v>1.454311739783506</v>
       </c>
       <c r="J2">
-        <v>0.07314024533565799</v>
+        <v>0.1947768401313876</v>
       </c>
       <c r="K2">
-        <v>0.9453015407885346</v>
+        <v>0.5270933037425038</v>
       </c>
       <c r="L2">
-        <v>0.1918648714304823</v>
+        <v>0.3568937670666017</v>
       </c>
       <c r="M2">
-        <v>0.2315364329462071</v>
+        <v>0.2595890386159851</v>
       </c>
       <c r="N2">
-        <v>1.283628387563901</v>
+        <v>2.698998929581851</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8975498357568199</v>
+        <v>0.771592486386993</v>
       </c>
       <c r="C3">
-        <v>0.09023932011780289</v>
+        <v>0.04609251484683341</v>
       </c>
       <c r="D3">
-        <v>0.04711301853277661</v>
+        <v>0.09559808043853479</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.094209821350979</v>
+        <v>2.293205292164728</v>
       </c>
       <c r="G3">
-        <v>0.8324807858024741</v>
+        <v>1.605105955281132</v>
       </c>
       <c r="H3">
-        <v>0.6254482706492723</v>
+        <v>1.457746528855481</v>
       </c>
       <c r="I3">
-        <v>0.6642912782124526</v>
+        <v>1.461519784216243</v>
       </c>
       <c r="J3">
-        <v>0.07439348609846164</v>
+        <v>0.1957119473707962</v>
       </c>
       <c r="K3">
-        <v>0.8219257898157366</v>
+        <v>0.4943590344040842</v>
       </c>
       <c r="L3">
-        <v>0.178478315678305</v>
+        <v>0.3551240325136718</v>
       </c>
       <c r="M3">
-        <v>0.2059232061834102</v>
+        <v>0.2538969803960427</v>
       </c>
       <c r="N3">
-        <v>1.33450123571982</v>
+        <v>2.721095116021061</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8198392955393103</v>
+        <v>0.7524263728961103</v>
       </c>
       <c r="C4">
-        <v>0.08359396993699164</v>
+        <v>0.04390837404945103</v>
       </c>
       <c r="D4">
-        <v>0.04429011184515019</v>
+        <v>0.0950923774158241</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.080436781040369</v>
+        <v>2.297816831157348</v>
       </c>
       <c r="G4">
-        <v>0.8213970208672379</v>
+        <v>1.608353550521556</v>
       </c>
       <c r="H4">
-        <v>0.6247589922224677</v>
+        <v>1.462259180989435</v>
       </c>
       <c r="I4">
-        <v>0.664467927564182</v>
+        <v>1.466491084947847</v>
       </c>
       <c r="J4">
-        <v>0.0752139812137802</v>
+        <v>0.1963239729687842</v>
       </c>
       <c r="K4">
-        <v>0.7466038601226614</v>
+        <v>0.4744775348043788</v>
       </c>
       <c r="L4">
-        <v>0.1704380028924533</v>
+        <v>0.3541679334297925</v>
       </c>
       <c r="M4">
-        <v>0.1903589822208112</v>
+        <v>0.2505130471135786</v>
       </c>
       <c r="N4">
-        <v>1.367081858616924</v>
+        <v>2.735375473536056</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7882946725469822</v>
+        <v>0.7447042991474007</v>
       </c>
       <c r="C5">
-        <v>0.08088658335066157</v>
+        <v>0.04301277338691989</v>
       </c>
       <c r="D5">
-        <v>0.04314634697923481</v>
+        <v>0.09489354973996456</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.075209899609831</v>
+        <v>2.299928662273047</v>
       </c>
       <c r="G5">
-        <v>0.8172144479390795</v>
+        <v>1.609860607456881</v>
       </c>
       <c r="H5">
-        <v>0.6246774107386841</v>
+        <v>1.464224386510622</v>
       </c>
       <c r="I5">
-        <v>0.6647701653961846</v>
+        <v>1.468654237275899</v>
       </c>
       <c r="J5">
-        <v>0.07556103649255519</v>
+        <v>0.1965829187659232</v>
       </c>
       <c r="K5">
-        <v>0.7160032693728056</v>
+        <v>0.4664307831648102</v>
       </c>
       <c r="L5">
-        <v>0.1672043657796891</v>
+        <v>0.353811243487435</v>
       </c>
       <c r="M5">
-        <v>0.1840540456783266</v>
+        <v>0.249162117629119</v>
       </c>
       <c r="N5">
-        <v>1.380690122146831</v>
+        <v>2.741374244623774</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7830637299153693</v>
+        <v>0.7434274032256383</v>
       </c>
       <c r="C6">
-        <v>0.08043701716126606</v>
+        <v>0.04286372438755848</v>
       </c>
       <c r="D6">
-        <v>0.04295681342595969</v>
+        <v>0.09486097373365965</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.074364832115151</v>
+        <v>2.300293386209219</v>
       </c>
       <c r="G6">
-        <v>0.8165396888767731</v>
+        <v>1.610121947497348</v>
       </c>
       <c r="H6">
-        <v>0.6246757109556853</v>
+        <v>1.464558338036909</v>
       </c>
       <c r="I6">
-        <v>0.6648340292315744</v>
+        <v>1.469021723861104</v>
       </c>
       <c r="J6">
-        <v>0.07561942799816102</v>
+        <v>0.196626493284942</v>
       </c>
       <c r="K6">
-        <v>0.7109273082488556</v>
+        <v>0.4650979681753142</v>
       </c>
       <c r="L6">
-        <v>0.1666699495999282</v>
+        <v>0.3537540073147269</v>
       </c>
       <c r="M6">
-        <v>0.183009296264995</v>
+        <v>0.2489394950085035</v>
       </c>
       <c r="N6">
-        <v>1.382969590237572</v>
+        <v>2.742381173894909</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8194133943140116</v>
+        <v>0.7523218721257479</v>
       </c>
       <c r="C7">
-        <v>0.0835574566367967</v>
+        <v>0.04389631813058514</v>
       </c>
       <c r="D7">
-        <v>0.04427466041435935</v>
+        <v>0.09508966654129836</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.080364747871542</v>
+        <v>2.29784436993608</v>
       </c>
       <c r="G7">
-        <v>0.8213392796953087</v>
+        <v>1.608373131540972</v>
       </c>
       <c r="H7">
-        <v>0.6247570936705102</v>
+        <v>1.462285172995124</v>
       </c>
       <c r="I7">
-        <v>0.6644710817736943</v>
+        <v>1.466519701856917</v>
       </c>
       <c r="J7">
-        <v>0.07521861047745659</v>
+        <v>0.1963274265487787</v>
       </c>
       <c r="K7">
-        <v>0.7461908093548857</v>
+        <v>0.4743687897382642</v>
       </c>
       <c r="L7">
-        <v>0.1703942222084365</v>
+        <v>0.3541629895172989</v>
       </c>
       <c r="M7">
-        <v>0.1902738034980231</v>
+        <v>0.2504947142494345</v>
       </c>
       <c r="N7">
-        <v>1.367264051193537</v>
+        <v>2.735455648551909</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9809359469034575</v>
+        <v>0.7923446244064678</v>
       </c>
       <c r="C8">
-        <v>0.09733729796758439</v>
+        <v>0.04840426585566604</v>
       </c>
       <c r="D8">
-        <v>0.05014889700188263</v>
+        <v>0.09616237463490762</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.11026961686111</v>
+        <v>2.289078629224299</v>
       </c>
       <c r="G8">
-        <v>0.8454927544886601</v>
+        <v>1.602267863950502</v>
       </c>
       <c r="H8">
-        <v>0.6268839529019914</v>
+        <v>1.453362255853364</v>
       </c>
       <c r="I8">
-        <v>0.6649125011620924</v>
+        <v>1.456683924343118</v>
       </c>
       <c r="J8">
-        <v>0.07356169919109945</v>
+        <v>0.195091417285866</v>
       </c>
       <c r="K8">
-        <v>0.9026629170498097</v>
+        <v>0.5157616409712773</v>
       </c>
       <c r="L8">
-        <v>0.1872106690012245</v>
+        <v>0.3562565347776427</v>
       </c>
       <c r="M8">
-        <v>0.2226692847582576</v>
+        <v>0.2576034550639612</v>
       </c>
       <c r="N8">
-        <v>1.300886176410479</v>
+        <v>2.706469710242349</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.30274295046496</v>
+        <v>0.8735754367883715</v>
       </c>
       <c r="C9">
-        <v>0.124510646134425</v>
+        <v>0.05707039175304374</v>
       </c>
       <c r="D9">
-        <v>0.06190638597264808</v>
+        <v>0.09849164704082369</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.182335672535544</v>
+        <v>2.27920920784095</v>
       </c>
       <c r="G9">
-        <v>0.9046020606183731</v>
+        <v>1.596082922521006</v>
       </c>
       <c r="H9">
-        <v>0.6378790904017393</v>
+        <v>1.439837053660426</v>
       </c>
       <c r="I9">
-        <v>0.6736851897255747</v>
+        <v>1.441719358917901</v>
       </c>
       <c r="J9">
-        <v>0.07072316250520139</v>
+        <v>0.1929672116251364</v>
       </c>
       <c r="K9">
-        <v>1.213645373391756</v>
+        <v>0.5986438163095613</v>
       </c>
       <c r="L9">
-        <v>0.2217141001748502</v>
+        <v>0.3613934634362721</v>
       </c>
       <c r="M9">
-        <v>0.2876423748854506</v>
+        <v>0.2724195084811711</v>
       </c>
       <c r="N9">
-        <v>1.181702071399997</v>
+        <v>2.655283565420252</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.543339034387742</v>
+        <v>0.9349088831546339</v>
       </c>
       <c r="C10">
-        <v>0.1446866893020911</v>
+        <v>0.06333294722767846</v>
       </c>
       <c r="D10">
-        <v>0.07071786803816593</v>
+        <v>0.1003384891251713</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.244581936498051</v>
+        <v>2.276408862048029</v>
       </c>
       <c r="G10">
-        <v>0.9562604255124683</v>
+        <v>1.595064208015202</v>
       </c>
       <c r="H10">
-        <v>0.6505952727123798</v>
+        <v>1.432313752868382</v>
       </c>
       <c r="I10">
-        <v>0.6855212706515132</v>
+        <v>1.433354223068797</v>
       </c>
       <c r="J10">
-        <v>0.0688967655098498</v>
+        <v>0.1915880340351901</v>
       </c>
       <c r="K10">
-        <v>1.445731908731403</v>
+        <v>0.6605673120712368</v>
       </c>
       <c r="L10">
-        <v>0.2481520695623942</v>
+        <v>0.3657915558167844</v>
       </c>
       <c r="M10">
-        <v>0.3364955101457738</v>
+        <v>0.2838334619664735</v>
       </c>
       <c r="N10">
-        <v>1.101291909095089</v>
+        <v>2.621118274791762</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.653954637911767</v>
+        <v>0.9631659792015057</v>
       </c>
       <c r="C11">
-        <v>0.1539401845593318</v>
+        <v>0.06615963675186265</v>
       </c>
       <c r="D11">
-        <v>0.07477079733025249</v>
+        <v>0.1012076728927056</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.275184406550522</v>
+        <v>2.276099007185479</v>
       </c>
       <c r="G11">
-        <v>0.9818035946134955</v>
+        <v>1.595365817147979</v>
       </c>
       <c r="H11">
-        <v>0.6575012852360089</v>
+        <v>1.429413653935498</v>
       </c>
       <c r="I11">
-        <v>0.6922121236392158</v>
+        <v>1.430118373289247</v>
       </c>
       <c r="J11">
-        <v>0.06812421001720814</v>
+        <v>0.190999768458072</v>
       </c>
       <c r="K11">
-        <v>1.55235683336727</v>
+        <v>0.6889591861547331</v>
       </c>
       <c r="L11">
-        <v>0.2604532534315638</v>
+        <v>0.3679268810836902</v>
       </c>
       <c r="M11">
-        <v>0.3590190727524103</v>
+        <v>0.2891397011240002</v>
       </c>
       <c r="N11">
-        <v>1.066374218532175</v>
+        <v>2.60632146018029</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.696032395968814</v>
+        <v>0.9739169347422205</v>
       </c>
       <c r="C12">
-        <v>0.1574576576093136</v>
+        <v>0.06722685799780947</v>
       </c>
       <c r="D12">
-        <v>0.07631252595791693</v>
+        <v>0.1015409468064448</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.287125275190547</v>
+        <v>2.276120072990096</v>
       </c>
       <c r="G12">
-        <v>0.9917928312537327</v>
+        <v>1.5955899708771</v>
       </c>
       <c r="H12">
-        <v>0.6602878932777685</v>
+        <v>1.42839042539245</v>
       </c>
       <c r="I12">
-        <v>0.694945829024789</v>
+        <v>1.428974824534727</v>
       </c>
       <c r="J12">
-        <v>0.06784023155763208</v>
+        <v>0.1907826155411154</v>
       </c>
       <c r="K12">
-        <v>1.592906411728251</v>
+        <v>0.6997421034867841</v>
       </c>
       <c r="L12">
-        <v>0.2651541581170989</v>
+        <v>0.3687547336574539</v>
       </c>
       <c r="M12">
-        <v>0.3675962574979152</v>
+        <v>0.2911653073978826</v>
       </c>
       <c r="N12">
-        <v>1.053400733253838</v>
+        <v>2.600825382267164</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.686961375693414</v>
+        <v>0.9715992831638118</v>
       </c>
       <c r="C13">
-        <v>0.1566994692324926</v>
+        <v>0.06699715437973452</v>
       </c>
       <c r="D13">
-        <v>0.07598016754439385</v>
+        <v>0.1014689871923196</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.284537529501151</v>
+        <v>2.276109384257538</v>
       </c>
       <c r="G13">
-        <v>0.989627010237669</v>
+        <v>1.595536806806621</v>
       </c>
       <c r="H13">
-        <v>0.659679951662298</v>
+        <v>1.428607463424868</v>
       </c>
       <c r="I13">
-        <v>0.6943479778971735</v>
+        <v>1.429217471765682</v>
       </c>
       <c r="J13">
-        <v>0.06790100700824198</v>
+        <v>0.1908291340364681</v>
       </c>
       <c r="K13">
-        <v>1.584165264423149</v>
+        <v>0.6974184145174434</v>
       </c>
       <c r="L13">
-        <v>0.2641397802656371</v>
+        <v>0.3685755862702393</v>
       </c>
       <c r="M13">
-        <v>0.3657467913737378</v>
+        <v>0.2907283364206137</v>
       </c>
       <c r="N13">
-        <v>1.056183557079681</v>
+        <v>2.60200429516448</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.657412459080348</v>
+        <v>0.9640494560777597</v>
       </c>
       <c r="C14">
-        <v>0.1542292858066929</v>
+        <v>0.06624750148654357</v>
       </c>
       <c r="D14">
-        <v>0.0748974931413926</v>
+        <v>0.1012350089592218</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.276159585629856</v>
+        <v>2.27609796780996</v>
       </c>
       <c r="G14">
-        <v>0.9826189340526668</v>
+        <v>1.595382055425659</v>
       </c>
       <c r="H14">
-        <v>0.6577270439487251</v>
+        <v>1.429327970409744</v>
       </c>
       <c r="I14">
-        <v>0.6924329458039011</v>
+        <v>1.43002265404612</v>
       </c>
       <c r="J14">
-        <v>0.06810067401511155</v>
+        <v>0.1909817908068394</v>
       </c>
       <c r="K14">
-        <v>1.555689269555273</v>
+        <v>0.6898456740452161</v>
       </c>
       <c r="L14">
-        <v>0.2608391242093404</v>
+        <v>0.3679946037942159</v>
       </c>
       <c r="M14">
-        <v>0.3597237318357003</v>
+        <v>0.2893060241296581</v>
       </c>
       <c r="N14">
-        <v>1.065301829026559</v>
+        <v>2.60586714697369</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.639338327840107</v>
+        <v>0.9594315411979721</v>
       </c>
       <c r="C15">
-        <v>0.1527180480484134</v>
+        <v>0.06578790282904379</v>
       </c>
       <c r="D15">
-        <v>0.07423524934011283</v>
+        <v>0.1010922274583024</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.271074472246042</v>
+        <v>2.276108992118765</v>
       </c>
       <c r="G15">
-        <v>0.9783682174876134</v>
+        <v>1.595301581240989</v>
       </c>
       <c r="H15">
-        <v>0.6565534749539097</v>
+        <v>1.429779062032537</v>
       </c>
       <c r="I15">
-        <v>0.6912863575513128</v>
+        <v>1.430526501062815</v>
       </c>
       <c r="J15">
-        <v>0.06822409796203921</v>
+        <v>0.1910760276584806</v>
       </c>
       <c r="K15">
-        <v>1.538270127366729</v>
+        <v>0.685211244016358</v>
       </c>
       <c r="L15">
-        <v>0.258823040009645</v>
+        <v>0.3676412391983632</v>
       </c>
       <c r="M15">
-        <v>0.3560408351342375</v>
+        <v>0.2884369286631809</v>
       </c>
       <c r="N15">
-        <v>1.070919787311414</v>
+        <v>2.608247210095183</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.536135392227351</v>
+        <v>0.933069330620242</v>
       </c>
       <c r="C16">
-        <v>0.1440836800529581</v>
+        <v>0.06314777052246257</v>
       </c>
       <c r="D16">
-        <v>0.07045394342995337</v>
+        <v>0.1002822666476035</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.242629980164565</v>
+        <v>2.276448491319002</v>
       </c>
       <c r="G16">
-        <v>0.9546341471030217</v>
+        <v>1.595059885540209</v>
       </c>
       <c r="H16">
-        <v>0.6501673685365859</v>
+        <v>1.4325137799282</v>
       </c>
       <c r="I16">
-        <v>0.68511131764879</v>
+        <v>1.433577144967941</v>
       </c>
       <c r="J16">
-        <v>0.06894844262677147</v>
+        <v>0.1916272645624879</v>
       </c>
       <c r="K16">
-        <v>1.438786676154194</v>
+        <v>0.6587162744203852</v>
       </c>
       <c r="L16">
-        <v>0.2473539531699487</v>
+        <v>0.3656547069704175</v>
       </c>
       <c r="M16">
-        <v>0.3350299869931987</v>
+        <v>0.2834889681854662</v>
       </c>
       <c r="N16">
-        <v>1.103608146799751</v>
+        <v>2.622100275911542</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.473137975960697</v>
+        <v>0.9169877629440748</v>
       </c>
       <c r="C17">
-        <v>0.1388078117889648</v>
+        <v>0.06152245770553577</v>
       </c>
       <c r="D17">
-        <v>0.06814603377865325</v>
+        <v>0.09979279003413666</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.225782069228799</v>
+        <v>2.276903514775569</v>
       </c>
       <c r="G17">
-        <v>0.940613132417937</v>
+        <v>1.595107505646908</v>
       </c>
       <c r="H17">
-        <v>0.6465439360217573</v>
+        <v>1.434325119649841</v>
       </c>
       <c r="I17">
-        <v>0.681666146403245</v>
+        <v>1.43559440904005</v>
       </c>
       <c r="J17">
-        <v>0.06940786379831643</v>
+        <v>0.1919754408829739</v>
       </c>
       <c r="K17">
-        <v>1.378040534962224</v>
+        <v>0.6425191360994233</v>
       </c>
       <c r="L17">
-        <v>0.24039056893848</v>
+        <v>0.3644704356665898</v>
       </c>
       <c r="M17">
-        <v>0.3222207042139047</v>
+        <v>0.2804826461482151</v>
       </c>
       <c r="N17">
-        <v>1.124093922155801</v>
+        <v>2.630789534619982</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.437011973975643</v>
+        <v>0.9077716349054015</v>
       </c>
       <c r="C18">
-        <v>0.1357801965282022</v>
+        <v>0.06058553297124547</v>
       </c>
       <c r="D18">
-        <v>0.06682274135160782</v>
+        <v>0.09951399260103955</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.216305288339498</v>
+        <v>2.277255985368129</v>
       </c>
       <c r="G18">
-        <v>0.932739507258546</v>
+        <v>1.595206907580774</v>
       </c>
       <c r="H18">
-        <v>0.6445647281850739</v>
+        <v>1.435416122207116</v>
       </c>
       <c r="I18">
-        <v>0.679806778735724</v>
+        <v>1.436808294929335</v>
       </c>
       <c r="J18">
-        <v>0.06967758432416105</v>
+        <v>0.1921793866846713</v>
       </c>
       <c r="K18">
-        <v>1.343198130742934</v>
+        <v>0.6332239477910093</v>
       </c>
       <c r="L18">
-        <v>0.2364110364176355</v>
+        <v>0.3638019506655326</v>
       </c>
       <c r="M18">
-        <v>0.3148810727245674</v>
+        <v>0.2787642254525693</v>
       </c>
       <c r="N18">
-        <v>1.136032515438409</v>
+        <v>2.63585750279729</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.424798306037957</v>
+        <v>0.9046569957588133</v>
       </c>
       <c r="C19">
-        <v>0.1347562130674334</v>
+        <v>0.06026794763445764</v>
       </c>
       <c r="D19">
-        <v>0.06637539447682883</v>
+        <v>0.09942006792869762</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.213132622471974</v>
+        <v>2.277390919701517</v>
       </c>
       <c r="G19">
-        <v>0.930105752196809</v>
+        <v>1.595252933632295</v>
       </c>
       <c r="H19">
-        <v>0.6439123191723439</v>
+        <v>1.435793965487306</v>
       </c>
       <c r="I19">
-        <v>0.6791978611714882</v>
+        <v>1.437228506132996</v>
       </c>
       <c r="J19">
-        <v>0.06976984154722921</v>
+        <v>0.1922490724555512</v>
       </c>
       <c r="K19">
-        <v>1.331417124599852</v>
+        <v>0.6300803740354013</v>
       </c>
       <c r="L19">
-        <v>0.2350679402172062</v>
+        <v>0.3635777935585196</v>
       </c>
       <c r="M19">
-        <v>0.3124006540701671</v>
+        <v>0.2781842459774495</v>
       </c>
       <c r="N19">
-        <v>1.140101163621498</v>
+        <v>2.637585475690436</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.479832779153298</v>
+        <v>0.9186962039478317</v>
       </c>
       <c r="C20">
-        <v>0.1393687025093868</v>
+        <v>0.06169569107582618</v>
       </c>
       <c r="D20">
-        <v>0.06839128057505661</v>
+        <v>0.09984461275010403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.227553276089594</v>
+        <v>2.276845685781453</v>
       </c>
       <c r="G20">
-        <v>0.9420857772410045</v>
+        <v>1.595094983922323</v>
       </c>
       <c r="H20">
-        <v>0.6469187288250993</v>
+        <v>1.434127211686601</v>
       </c>
       <c r="I20">
-        <v>0.6820201578932625</v>
+        <v>1.435374120199462</v>
       </c>
       <c r="J20">
-        <v>0.06935838978925979</v>
+        <v>0.1919379957584564</v>
       </c>
       <c r="K20">
-        <v>1.384496851739897</v>
+        <v>0.6442411814879563</v>
       </c>
       <c r="L20">
-        <v>0.2411291584637496</v>
+        <v>0.3645951921613033</v>
       </c>
       <c r="M20">
-        <v>0.3235813495844369</v>
+        <v>0.2808015641218802</v>
       </c>
       <c r="N20">
-        <v>1.121896988722753</v>
+        <v>2.629857289324775</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.666086349978485</v>
+        <v>0.9662656547591837</v>
       </c>
       <c r="C21">
-        <v>0.1549544542422012</v>
+        <v>0.06646777911066692</v>
       </c>
       <c r="D21">
-        <v>0.07521530690675604</v>
+        <v>0.1013036222228365</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.278610630927773</v>
+        <v>2.276097566729092</v>
       </c>
       <c r="G21">
-        <v>0.9846685943162612</v>
+        <v>1.595424526442187</v>
       </c>
       <c r="H21">
-        <v>0.6582959221683637</v>
+        <v>1.42911430623468</v>
       </c>
       <c r="I21">
-        <v>0.6929899074751944</v>
+        <v>1.429783933289542</v>
       </c>
       <c r="J21">
-        <v>0.06804179276427824</v>
+        <v>0.1909367996747235</v>
       </c>
       <c r="K21">
-        <v>1.564048476726668</v>
+        <v>0.6920691195297479</v>
       </c>
       <c r="L21">
-        <v>0.2618074206225742</v>
+        <v>0.3681647307992364</v>
       </c>
       <c r="M21">
-        <v>0.36149150725781</v>
+        <v>0.2897233518640689</v>
       </c>
       <c r="N21">
-        <v>1.062616726511045</v>
+        <v>2.604729625571469</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.788932945610156</v>
+        <v>0.9976497288341477</v>
       </c>
       <c r="C22">
-        <v>0.1652199385916759</v>
+        <v>0.06956805343568817</v>
       </c>
       <c r="D22">
-        <v>0.07971613575574565</v>
+        <v>0.1022812385931999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.314045677289599</v>
+        <v>2.276415230943911</v>
       </c>
       <c r="G22">
-        <v>1.014356027401959</v>
+        <v>1.596280689394348</v>
       </c>
       <c r="H22">
-        <v>0.6667362018298917</v>
+        <v>1.426275041235868</v>
       </c>
       <c r="I22">
-        <v>0.701331438487486</v>
+        <v>1.426607156897148</v>
       </c>
       <c r="J22">
-        <v>0.06723137961617986</v>
+        <v>0.1903151549368296</v>
       </c>
       <c r="K22">
-        <v>1.682416025570603</v>
+        <v>0.7235110072341229</v>
       </c>
       <c r="L22">
-        <v>0.2755725026006957</v>
+        <v>0.3706097926711891</v>
       </c>
       <c r="M22">
-        <v>0.3865502804593248</v>
+        <v>0.2956489002896916</v>
       </c>
       <c r="N22">
-        <v>1.025330782339218</v>
+        <v>2.588931827796184</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.723257247791537</v>
+        <v>0.9808726971299961</v>
       </c>
       <c r="C23">
-        <v>0.1597329049599807</v>
+        <v>0.06791507558098431</v>
       </c>
       <c r="D23">
-        <v>0.07731001496547663</v>
+        <v>0.1017572784628413</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.294936031750353</v>
+        <v>2.276171957832929</v>
       </c>
       <c r="G23">
-        <v>0.9983334138760966</v>
+        <v>1.595765129726885</v>
       </c>
       <c r="H23">
-        <v>0.6621359752503508</v>
+        <v>1.427750470854591</v>
       </c>
       <c r="I23">
-        <v>0.696767912158279</v>
+        <v>1.428259072246021</v>
       </c>
       <c r="J23">
-        <v>0.06765926564261981</v>
+        <v>0.1906439521927581</v>
       </c>
       <c r="K23">
-        <v>1.61913985169204</v>
+        <v>0.7067132404868062</v>
       </c>
       <c r="L23">
-        <v>0.2682017505822074</v>
+        <v>0.3692945891703516</v>
       </c>
       <c r="M23">
-        <v>0.3731484142507071</v>
+        <v>0.2924777100926335</v>
       </c>
       <c r="N23">
-        <v>1.045094102282647</v>
+        <v>2.59730625847693</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.476805773566923</v>
+        <v>0.9179237262096649</v>
       </c>
       <c r="C24">
-        <v>0.1391151067119694</v>
+        <v>0.06161738008965756</v>
       </c>
       <c r="D24">
-        <v>0.06828039346604697</v>
+        <v>0.09982117557015613</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.226751863286694</v>
+        <v>2.276871547191377</v>
       </c>
       <c r="G24">
-        <v>0.9414194129964244</v>
+        <v>1.595100420634921</v>
       </c>
       <c r="H24">
-        <v>0.6467489619747511</v>
+        <v>1.43421653124129</v>
       </c>
       <c r="I24">
-        <v>0.6818597323619002</v>
+        <v>1.435473544151201</v>
       </c>
       <c r="J24">
-        <v>0.06938073958149005</v>
+        <v>0.1919549129401652</v>
       </c>
       <c r="K24">
-        <v>1.38157769917467</v>
+        <v>0.6434625925202795</v>
       </c>
       <c r="L24">
-        <v>0.2407951682202452</v>
+        <v>0.3645387512169549</v>
       </c>
       <c r="M24">
-        <v>0.3229661255650029</v>
+        <v>0.2806573502902836</v>
       </c>
       <c r="N24">
-        <v>1.122889721461291</v>
+        <v>2.630278531902334</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.215036606441828</v>
+        <v>0.8513085153765303</v>
       </c>
       <c r="C25">
-        <v>0.1171315262067907</v>
+        <v>0.05474443172397514</v>
       </c>
       <c r="D25">
-        <v>0.05869739253807893</v>
+        <v>0.09783756880555217</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.161291957767276</v>
+        <v>2.281096702722849</v>
       </c>
       <c r="G25">
-        <v>0.8872477300003823</v>
+        <v>1.597136819949853</v>
       </c>
       <c r="H25">
-        <v>0.634126597863002</v>
+        <v>1.443071529938464</v>
       </c>
       <c r="I25">
-        <v>0.6704087664825238</v>
+        <v>1.445305480050109</v>
       </c>
       <c r="J25">
-        <v>0.07144622970333891</v>
+        <v>0.1935099122984614</v>
       </c>
       <c r="K25">
-        <v>1.128965536778878</v>
+        <v>0.5760401749871562</v>
       </c>
       <c r="L25">
-        <v>0.2122009049353082</v>
+        <v>0.359893860218051</v>
       </c>
       <c r="M25">
-        <v>0.2698872069442722</v>
+        <v>0.2683181610409378</v>
       </c>
       <c r="N25">
-        <v>1.212723258657782</v>
+        <v>2.668526019250489</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8033754279506979</v>
+        <v>1.025005412927811</v>
       </c>
       <c r="C2">
-        <v>0.04961386267486034</v>
+        <v>0.1010770289410203</v>
       </c>
       <c r="D2">
-        <v>0.09646837582005929</v>
+        <v>0.05175565807884652</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.287199385550934</v>
+        <v>1.119241738546449</v>
       </c>
       <c r="G2">
-        <v>1.601005413721211</v>
+        <v>0.8527945746918419</v>
       </c>
       <c r="H2">
-        <v>1.451213742430042</v>
+        <v>0.6279054135191871</v>
       </c>
       <c r="I2">
-        <v>1.454311739783506</v>
+        <v>0.6655473031315893</v>
       </c>
       <c r="J2">
-        <v>0.1947768401313876</v>
+        <v>0.0731402453356722</v>
       </c>
       <c r="K2">
-        <v>0.5270933037425038</v>
+        <v>0.9453015407885346</v>
       </c>
       <c r="L2">
-        <v>0.3568937670666017</v>
+        <v>0.191864871430532</v>
       </c>
       <c r="M2">
-        <v>0.2595890386159851</v>
+        <v>0.2315364329462213</v>
       </c>
       <c r="N2">
-        <v>2.698998929581851</v>
+        <v>1.283628387563844</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.771592486386993</v>
+        <v>0.8975498357569052</v>
       </c>
       <c r="C3">
-        <v>0.04609251484683341</v>
+        <v>0.090239320117945</v>
       </c>
       <c r="D3">
-        <v>0.09559808043853479</v>
+        <v>0.04711301853277661</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.293205292164728</v>
+        <v>1.094209821351001</v>
       </c>
       <c r="G3">
-        <v>1.605105955281132</v>
+        <v>0.8324807858025025</v>
       </c>
       <c r="H3">
-        <v>1.457746528855481</v>
+        <v>0.6254482706491729</v>
       </c>
       <c r="I3">
-        <v>1.461519784216243</v>
+        <v>0.6642912782124668</v>
       </c>
       <c r="J3">
-        <v>0.1957119473707962</v>
+        <v>0.07439348609834617</v>
       </c>
       <c r="K3">
-        <v>0.4943590344040842</v>
+        <v>0.8219257898157366</v>
       </c>
       <c r="L3">
-        <v>0.3551240325136718</v>
+        <v>0.1784783156782908</v>
       </c>
       <c r="M3">
-        <v>0.2538969803960427</v>
+        <v>0.2059232061834173</v>
       </c>
       <c r="N3">
-        <v>2.721095116021061</v>
+        <v>1.334501235719841</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7524263728961103</v>
+        <v>0.8198392955392251</v>
       </c>
       <c r="C4">
-        <v>0.04390837404945103</v>
+        <v>0.08359396993698454</v>
       </c>
       <c r="D4">
-        <v>0.0950923774158241</v>
+        <v>0.04429011184513598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.297816831157348</v>
+        <v>1.080436781040405</v>
       </c>
       <c r="G4">
-        <v>1.608353550521556</v>
+        <v>0.8213970208671952</v>
       </c>
       <c r="H4">
-        <v>1.462259180989435</v>
+        <v>0.6247589922224819</v>
       </c>
       <c r="I4">
-        <v>1.466491084947847</v>
+        <v>0.6644679275641892</v>
       </c>
       <c r="J4">
-        <v>0.1963239729687842</v>
+        <v>0.07521398121375356</v>
       </c>
       <c r="K4">
-        <v>0.4744775348043788</v>
+        <v>0.7466038601226899</v>
       </c>
       <c r="L4">
-        <v>0.3541679334297925</v>
+        <v>0.1704380028924177</v>
       </c>
       <c r="M4">
-        <v>0.2505130471135786</v>
+        <v>0.1903589822208076</v>
       </c>
       <c r="N4">
-        <v>2.735375473536056</v>
+        <v>1.367081858616906</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7447042991474007</v>
+        <v>0.78829467254684</v>
       </c>
       <c r="C5">
-        <v>0.04301277338691989</v>
+        <v>0.08088658335114474</v>
       </c>
       <c r="D5">
-        <v>0.09489354973996456</v>
+        <v>0.04314634697934849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.299928662273047</v>
+        <v>1.07520989960981</v>
       </c>
       <c r="G5">
-        <v>1.609860607456881</v>
+        <v>0.8172144479390795</v>
       </c>
       <c r="H5">
-        <v>1.464224386510622</v>
+        <v>0.6246774107386841</v>
       </c>
       <c r="I5">
-        <v>1.468654237275899</v>
+        <v>0.6647701653961846</v>
       </c>
       <c r="J5">
-        <v>0.1965829187659232</v>
+        <v>0.07556103649270973</v>
       </c>
       <c r="K5">
-        <v>0.4664307831648102</v>
+        <v>0.7160032693727487</v>
       </c>
       <c r="L5">
-        <v>0.353811243487435</v>
+        <v>0.1672043657795612</v>
       </c>
       <c r="M5">
-        <v>0.249162117629119</v>
+        <v>0.1840540456783266</v>
       </c>
       <c r="N5">
-        <v>2.741374244623774</v>
+        <v>1.380690122146824</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7434274032256383</v>
+        <v>0.7830637299155683</v>
       </c>
       <c r="C6">
-        <v>0.04286372438755848</v>
+        <v>0.08043701716101737</v>
       </c>
       <c r="D6">
-        <v>0.09486097373365965</v>
+        <v>0.0429568134258318</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.300293386209219</v>
+        <v>1.074364832115172</v>
       </c>
       <c r="G6">
-        <v>1.610121947497348</v>
+        <v>0.8165396888768015</v>
       </c>
       <c r="H6">
-        <v>1.464558338036909</v>
+        <v>0.6246757109556853</v>
       </c>
       <c r="I6">
-        <v>1.469021723861104</v>
+        <v>0.664834029231578</v>
       </c>
       <c r="J6">
-        <v>0.196626493284942</v>
+        <v>0.07561942799809529</v>
       </c>
       <c r="K6">
-        <v>0.4650979681753142</v>
+        <v>0.7109273082487562</v>
       </c>
       <c r="L6">
-        <v>0.3537540073147269</v>
+        <v>0.1666699496000348</v>
       </c>
       <c r="M6">
-        <v>0.2489394950085035</v>
+        <v>0.1830092962649985</v>
       </c>
       <c r="N6">
-        <v>2.742381173894909</v>
+        <v>1.382969590237536</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7523218721257479</v>
+        <v>0.8194133943140116</v>
       </c>
       <c r="C7">
-        <v>0.04389631813058514</v>
+        <v>0.08355745663668301</v>
       </c>
       <c r="D7">
-        <v>0.09508966654129836</v>
+        <v>0.04427466041440198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.29784436993608</v>
+        <v>1.080364747871535</v>
       </c>
       <c r="G7">
-        <v>1.608373131540972</v>
+        <v>0.8213392796952235</v>
       </c>
       <c r="H7">
-        <v>1.462285172995124</v>
+        <v>0.6247570936706097</v>
       </c>
       <c r="I7">
-        <v>1.466519701856917</v>
+        <v>0.6644710817736872</v>
       </c>
       <c r="J7">
-        <v>0.1963274265487787</v>
+        <v>0.07521861047746725</v>
       </c>
       <c r="K7">
-        <v>0.4743687897382642</v>
+        <v>0.746190809354971</v>
       </c>
       <c r="L7">
-        <v>0.3541629895172989</v>
+        <v>0.1703942222083725</v>
       </c>
       <c r="M7">
-        <v>0.2504947142494345</v>
+        <v>0.1902738034980125</v>
       </c>
       <c r="N7">
-        <v>2.735455648551909</v>
+        <v>1.367264051193544</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7923446244064678</v>
+        <v>0.9809359469032586</v>
       </c>
       <c r="C8">
-        <v>0.04840426585566604</v>
+        <v>0.09733729796774071</v>
       </c>
       <c r="D8">
-        <v>0.09616237463490762</v>
+        <v>0.05014889700194658</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.289078629224299</v>
+        <v>1.110269616861132</v>
       </c>
       <c r="G8">
-        <v>1.602267863950502</v>
+        <v>0.8454927544886317</v>
       </c>
       <c r="H8">
-        <v>1.453362255853364</v>
+        <v>0.6268839529020198</v>
       </c>
       <c r="I8">
-        <v>1.456683924343118</v>
+        <v>0.6649125011620853</v>
       </c>
       <c r="J8">
-        <v>0.195091417285866</v>
+        <v>0.07356169919100886</v>
       </c>
       <c r="K8">
-        <v>0.5157616409712773</v>
+        <v>0.9026629170497529</v>
       </c>
       <c r="L8">
-        <v>0.3562565347776427</v>
+        <v>0.1872106690013311</v>
       </c>
       <c r="M8">
-        <v>0.2576034550639612</v>
+        <v>0.2226692847582754</v>
       </c>
       <c r="N8">
-        <v>2.706469710242349</v>
+        <v>1.30088617641049</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8735754367883715</v>
+        <v>1.302742950465046</v>
       </c>
       <c r="C9">
-        <v>0.05707039175304374</v>
+        <v>0.1245106461348939</v>
       </c>
       <c r="D9">
-        <v>0.09849164704082369</v>
+        <v>0.06190638597246334</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.27920920784095</v>
+        <v>1.182335672535558</v>
       </c>
       <c r="G9">
-        <v>1.596082922521006</v>
+        <v>0.9046020606183305</v>
       </c>
       <c r="H9">
-        <v>1.439837053660426</v>
+        <v>0.6378790904016256</v>
       </c>
       <c r="I9">
-        <v>1.441719358917901</v>
+        <v>0.6736851897255889</v>
       </c>
       <c r="J9">
-        <v>0.1929672116251364</v>
+        <v>0.07072316250523691</v>
       </c>
       <c r="K9">
-        <v>0.5986438163095613</v>
+        <v>1.213645373391671</v>
       </c>
       <c r="L9">
-        <v>0.3613934634362721</v>
+        <v>0.2217141001747507</v>
       </c>
       <c r="M9">
-        <v>0.2724195084811711</v>
+        <v>0.2876423748854293</v>
       </c>
       <c r="N9">
-        <v>2.655283565420252</v>
+        <v>1.181702071400061</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9349088831546339</v>
+        <v>1.543339034387685</v>
       </c>
       <c r="C10">
-        <v>0.06333294722767846</v>
+        <v>0.1446866893021053</v>
       </c>
       <c r="D10">
-        <v>0.1003384891251713</v>
+        <v>0.07071786803820856</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.276408862048029</v>
+        <v>1.244581936498051</v>
       </c>
       <c r="G10">
-        <v>1.595064208015202</v>
+        <v>0.9562604255124398</v>
       </c>
       <c r="H10">
-        <v>1.432313752868382</v>
+        <v>0.6505952727123798</v>
       </c>
       <c r="I10">
-        <v>1.433354223068797</v>
+        <v>0.6855212706515061</v>
       </c>
       <c r="J10">
-        <v>0.1915880340351901</v>
+        <v>0.06889676550993329</v>
       </c>
       <c r="K10">
-        <v>0.6605673120712368</v>
+        <v>1.445731908731403</v>
       </c>
       <c r="L10">
-        <v>0.3657915558167844</v>
+        <v>0.2481520695623374</v>
       </c>
       <c r="M10">
-        <v>0.2838334619664735</v>
+        <v>0.3364955101457667</v>
       </c>
       <c r="N10">
-        <v>2.621118274791762</v>
+        <v>1.101291909095139</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9631659792015057</v>
+        <v>1.653954637911824</v>
       </c>
       <c r="C11">
-        <v>0.06615963675186265</v>
+        <v>0.1539401845593318</v>
       </c>
       <c r="D11">
-        <v>0.1012076728927056</v>
+        <v>0.07477079733032355</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.276099007185479</v>
+        <v>1.275184406550522</v>
       </c>
       <c r="G11">
-        <v>1.595365817147979</v>
+        <v>0.9818035946135382</v>
       </c>
       <c r="H11">
-        <v>1.429413653935498</v>
+        <v>0.6575012852361368</v>
       </c>
       <c r="I11">
-        <v>1.430118373289247</v>
+        <v>0.6922121236392229</v>
       </c>
       <c r="J11">
-        <v>0.190999768458072</v>
+        <v>0.06812421001719926</v>
       </c>
       <c r="K11">
-        <v>0.6889591861547331</v>
+        <v>1.552356833367298</v>
       </c>
       <c r="L11">
-        <v>0.3679268810836902</v>
+        <v>0.2604532534316064</v>
       </c>
       <c r="M11">
-        <v>0.2891397011240002</v>
+        <v>0.3590190727523819</v>
       </c>
       <c r="N11">
-        <v>2.60632146018029</v>
+        <v>1.066374218532101</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9739169347422205</v>
+        <v>1.696032395968643</v>
       </c>
       <c r="C12">
-        <v>0.06722685799780947</v>
+        <v>0.1574576576091857</v>
       </c>
       <c r="D12">
-        <v>0.1015409468064448</v>
+        <v>0.07631252595809457</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.276120072990096</v>
+        <v>1.287125275190547</v>
       </c>
       <c r="G12">
-        <v>1.5955899708771</v>
+        <v>0.9917928312537327</v>
       </c>
       <c r="H12">
-        <v>1.42839042539245</v>
+        <v>0.6602878932777685</v>
       </c>
       <c r="I12">
-        <v>1.428974824534727</v>
+        <v>0.6949458290247961</v>
       </c>
       <c r="J12">
-        <v>0.1907826155411154</v>
+        <v>0.06784023155768004</v>
       </c>
       <c r="K12">
-        <v>0.6997421034867841</v>
+        <v>1.592906411728336</v>
       </c>
       <c r="L12">
-        <v>0.3687547336574539</v>
+        <v>0.2651541581171131</v>
       </c>
       <c r="M12">
-        <v>0.2911653073978826</v>
+        <v>0.3675962574979224</v>
       </c>
       <c r="N12">
-        <v>2.600825382267164</v>
+        <v>1.053400733253842</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9715992831638118</v>
+        <v>1.686961375693642</v>
       </c>
       <c r="C13">
-        <v>0.06699715437973452</v>
+        <v>0.1566994692327768</v>
       </c>
       <c r="D13">
-        <v>0.1014689871923196</v>
+        <v>0.07598016754447912</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.276109384257538</v>
+        <v>1.284537529501179</v>
       </c>
       <c r="G13">
-        <v>1.595536806806621</v>
+        <v>0.9896270102377258</v>
       </c>
       <c r="H13">
-        <v>1.428607463424868</v>
+        <v>0.659679951662298</v>
       </c>
       <c r="I13">
-        <v>1.429217471765682</v>
+        <v>0.6943479778971877</v>
       </c>
       <c r="J13">
-        <v>0.1908291340364681</v>
+        <v>0.06790100700825441</v>
       </c>
       <c r="K13">
-        <v>0.6974184145174434</v>
+        <v>1.584165264423319</v>
       </c>
       <c r="L13">
-        <v>0.3685755862702393</v>
+        <v>0.2641397802655661</v>
       </c>
       <c r="M13">
-        <v>0.2907283364206137</v>
+        <v>0.3657467913737449</v>
       </c>
       <c r="N13">
-        <v>2.60200429516448</v>
+        <v>1.056183557079684</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9640494560777597</v>
+        <v>1.657412459080376</v>
       </c>
       <c r="C14">
-        <v>0.06624750148654357</v>
+        <v>0.1542292858066929</v>
       </c>
       <c r="D14">
-        <v>0.1012350089592218</v>
+        <v>0.07489749314132865</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.27609796780996</v>
+        <v>1.27615958562987</v>
       </c>
       <c r="G14">
-        <v>1.595382055425659</v>
+        <v>0.9826189340527236</v>
       </c>
       <c r="H14">
-        <v>1.429327970409744</v>
+        <v>0.6577270439487393</v>
       </c>
       <c r="I14">
-        <v>1.43002265404612</v>
+        <v>0.6924329458039153</v>
       </c>
       <c r="J14">
-        <v>0.1909817908068394</v>
+        <v>0.0681006740151151</v>
       </c>
       <c r="K14">
-        <v>0.6898456740452161</v>
+        <v>1.555689269555188</v>
       </c>
       <c r="L14">
-        <v>0.3679946037942159</v>
+        <v>0.2608391242092551</v>
       </c>
       <c r="M14">
-        <v>0.2893060241296581</v>
+        <v>0.3597237318357145</v>
       </c>
       <c r="N14">
-        <v>2.60586714697369</v>
+        <v>1.065301829026556</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9594315411979721</v>
+        <v>1.639338327839965</v>
       </c>
       <c r="C15">
-        <v>0.06578790282904379</v>
+        <v>0.1527180480484276</v>
       </c>
       <c r="D15">
-        <v>0.1010922274583024</v>
+        <v>0.07423524934017678</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.276108992118765</v>
+        <v>1.271074472246028</v>
       </c>
       <c r="G15">
-        <v>1.595301581240989</v>
+        <v>0.9783682174876418</v>
       </c>
       <c r="H15">
-        <v>1.429779062032537</v>
+        <v>0.656553474953796</v>
       </c>
       <c r="I15">
-        <v>1.430526501062815</v>
+        <v>0.6912863575512915</v>
       </c>
       <c r="J15">
-        <v>0.1910760276584806</v>
+        <v>0.06822409796207651</v>
       </c>
       <c r="K15">
-        <v>0.685211244016358</v>
+        <v>1.538270127366843</v>
       </c>
       <c r="L15">
-        <v>0.3676412391983632</v>
+        <v>0.2588230400096023</v>
       </c>
       <c r="M15">
-        <v>0.2884369286631809</v>
+        <v>0.3560408351342375</v>
       </c>
       <c r="N15">
-        <v>2.608247210095183</v>
+        <v>1.07091978731135</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.933069330620242</v>
+        <v>1.536135392227266</v>
       </c>
       <c r="C16">
-        <v>0.06314777052246257</v>
+        <v>0.144083680053086</v>
       </c>
       <c r="D16">
-        <v>0.1002822666476035</v>
+        <v>0.070453943429996</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.276448491319002</v>
+        <v>1.242629980164594</v>
       </c>
       <c r="G16">
-        <v>1.595059885540209</v>
+        <v>0.9546341471030075</v>
       </c>
       <c r="H16">
-        <v>1.4325137799282</v>
+        <v>0.6501673685364722</v>
       </c>
       <c r="I16">
-        <v>1.433577144967941</v>
+        <v>0.68511131764879</v>
       </c>
       <c r="J16">
-        <v>0.1916272645624879</v>
+        <v>0.06894844262672351</v>
       </c>
       <c r="K16">
-        <v>0.6587162744203852</v>
+        <v>1.438786676154194</v>
       </c>
       <c r="L16">
-        <v>0.3656547069704175</v>
+        <v>0.2473539531699913</v>
       </c>
       <c r="M16">
-        <v>0.2834889681854662</v>
+        <v>0.3350299869931987</v>
       </c>
       <c r="N16">
-        <v>2.622100275911542</v>
+        <v>1.103608146799779</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9169877629440748</v>
+        <v>1.473137975960555</v>
       </c>
       <c r="C17">
-        <v>0.06152245770553577</v>
+        <v>0.1388078117888227</v>
       </c>
       <c r="D17">
-        <v>0.09979279003413666</v>
+        <v>0.0681460337785893</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.276903514775569</v>
+        <v>1.225782069228813</v>
       </c>
       <c r="G17">
-        <v>1.595107505646908</v>
+        <v>0.9406131324179654</v>
       </c>
       <c r="H17">
-        <v>1.434325119649841</v>
+        <v>0.6465439360216436</v>
       </c>
       <c r="I17">
-        <v>1.43559440904005</v>
+        <v>0.6816661464032592</v>
       </c>
       <c r="J17">
-        <v>0.1919754408829739</v>
+        <v>0.06940786379825248</v>
       </c>
       <c r="K17">
-        <v>0.6425191360994233</v>
+        <v>1.378040534962253</v>
       </c>
       <c r="L17">
-        <v>0.3644704356665898</v>
+        <v>0.24039056893848</v>
       </c>
       <c r="M17">
-        <v>0.2804826461482151</v>
+        <v>0.3222207042138976</v>
       </c>
       <c r="N17">
-        <v>2.630789534619982</v>
+        <v>1.124093922155865</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9077716349054015</v>
+        <v>1.437011973975643</v>
       </c>
       <c r="C18">
-        <v>0.06058553297124547</v>
+        <v>0.1357801965282022</v>
       </c>
       <c r="D18">
-        <v>0.09951399260103955</v>
+        <v>0.06682274135143729</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.277255985368129</v>
+        <v>1.216305288339498</v>
       </c>
       <c r="G18">
-        <v>1.595206907580774</v>
+        <v>0.9327395072585603</v>
       </c>
       <c r="H18">
-        <v>1.435416122207116</v>
+        <v>0.6445647281850739</v>
       </c>
       <c r="I18">
-        <v>1.436808294929335</v>
+        <v>0.6798067787357169</v>
       </c>
       <c r="J18">
-        <v>0.1921793866846713</v>
+        <v>0.06967758432414328</v>
       </c>
       <c r="K18">
-        <v>0.6332239477910093</v>
+        <v>1.343198130742991</v>
       </c>
       <c r="L18">
-        <v>0.3638019506655326</v>
+        <v>0.2364110364176639</v>
       </c>
       <c r="M18">
-        <v>0.2787642254525693</v>
+        <v>0.3148810727245603</v>
       </c>
       <c r="N18">
-        <v>2.63585750279729</v>
+        <v>1.136032515438384</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9046569957588133</v>
+        <v>1.424798306037928</v>
       </c>
       <c r="C19">
-        <v>0.06026794763445764</v>
+        <v>0.1347562130676607</v>
       </c>
       <c r="D19">
-        <v>0.09942006792869762</v>
+        <v>0.06637539447694962</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.277390919701517</v>
+        <v>1.21313262247196</v>
       </c>
       <c r="G19">
-        <v>1.595252933632295</v>
+        <v>0.9301057521967238</v>
       </c>
       <c r="H19">
-        <v>1.435793965487306</v>
+        <v>0.6439123191724576</v>
       </c>
       <c r="I19">
-        <v>1.437228506132996</v>
+        <v>0.6791978611714882</v>
       </c>
       <c r="J19">
-        <v>0.1922490724555512</v>
+        <v>0.0697698415470871</v>
       </c>
       <c r="K19">
-        <v>0.6300803740354013</v>
+        <v>1.331417124599739</v>
       </c>
       <c r="L19">
-        <v>0.3635777935585196</v>
+        <v>0.2350679402172204</v>
       </c>
       <c r="M19">
-        <v>0.2781842459774495</v>
+        <v>0.3124006540701671</v>
       </c>
       <c r="N19">
-        <v>2.637585475690436</v>
+        <v>1.140101163621484</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9186962039478317</v>
+        <v>1.479832779153384</v>
       </c>
       <c r="C20">
-        <v>0.06169569107582618</v>
+        <v>0.1393687025090316</v>
       </c>
       <c r="D20">
-        <v>0.09984461275010403</v>
+        <v>0.06839128057513477</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.276845685781453</v>
+        <v>1.227553276089594</v>
       </c>
       <c r="G20">
-        <v>1.595094983922323</v>
+        <v>0.9420857772410471</v>
       </c>
       <c r="H20">
-        <v>1.434127211686601</v>
+        <v>0.6469187288251135</v>
       </c>
       <c r="I20">
-        <v>1.435374120199462</v>
+        <v>0.6820201578932696</v>
       </c>
       <c r="J20">
-        <v>0.1919379957584564</v>
+        <v>0.06935838978921005</v>
       </c>
       <c r="K20">
-        <v>0.6442411814879563</v>
+        <v>1.384496851739897</v>
       </c>
       <c r="L20">
-        <v>0.3645951921613033</v>
+        <v>0.2411291584637638</v>
       </c>
       <c r="M20">
-        <v>0.2808015641218802</v>
+        <v>0.3235813495844297</v>
       </c>
       <c r="N20">
-        <v>2.629857289324775</v>
+        <v>1.121896988722703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9662656547591837</v>
+        <v>1.666086349978514</v>
       </c>
       <c r="C21">
-        <v>0.06646777911066692</v>
+        <v>0.1549544542422012</v>
       </c>
       <c r="D21">
-        <v>0.1013036222228365</v>
+        <v>0.07521530690655709</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.276097566729092</v>
+        <v>1.278610630927759</v>
       </c>
       <c r="G21">
-        <v>1.595424526442187</v>
+        <v>0.9846685943162186</v>
       </c>
       <c r="H21">
-        <v>1.42911430623468</v>
+        <v>0.6582959221684632</v>
       </c>
       <c r="I21">
-        <v>1.429783933289542</v>
+        <v>0.6929899074751944</v>
       </c>
       <c r="J21">
-        <v>0.1909367996747235</v>
+        <v>0.06804179276440259</v>
       </c>
       <c r="K21">
-        <v>0.6920691195297479</v>
+        <v>1.56404847672664</v>
       </c>
       <c r="L21">
-        <v>0.3681647307992364</v>
+        <v>0.2618074206225316</v>
       </c>
       <c r="M21">
-        <v>0.2897233518640689</v>
+        <v>0.3614915072578029</v>
       </c>
       <c r="N21">
-        <v>2.604729625571469</v>
+        <v>1.062616726511038</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9976497288341477</v>
+        <v>1.788932945610213</v>
       </c>
       <c r="C22">
-        <v>0.06956805343568817</v>
+        <v>0.1652199385916902</v>
       </c>
       <c r="D22">
-        <v>0.1022812385931999</v>
+        <v>0.07971613575582381</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.276415230943911</v>
+        <v>1.314045677289599</v>
       </c>
       <c r="G22">
-        <v>1.596280689394348</v>
+        <v>1.014356027402002</v>
       </c>
       <c r="H22">
-        <v>1.426275041235868</v>
+        <v>0.6667362018299059</v>
       </c>
       <c r="I22">
-        <v>1.426607156897148</v>
+        <v>0.7013314384875002</v>
       </c>
       <c r="J22">
-        <v>0.1903151549368296</v>
+        <v>0.06723137961618164</v>
       </c>
       <c r="K22">
-        <v>0.7235110072341229</v>
+        <v>1.682416025570745</v>
       </c>
       <c r="L22">
-        <v>0.3706097926711891</v>
+        <v>0.2755725026006388</v>
       </c>
       <c r="M22">
-        <v>0.2956489002896916</v>
+        <v>0.3865502804593035</v>
       </c>
       <c r="N22">
-        <v>2.588931827796184</v>
+        <v>1.025330782339282</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9808726971299961</v>
+        <v>1.723257247791622</v>
       </c>
       <c r="C23">
-        <v>0.06791507558098431</v>
+        <v>0.1597329049600944</v>
       </c>
       <c r="D23">
-        <v>0.1017572784628413</v>
+        <v>0.07731001496566847</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.276171957832929</v>
+        <v>1.294936031750396</v>
       </c>
       <c r="G23">
-        <v>1.595765129726885</v>
+        <v>0.9983334138760682</v>
       </c>
       <c r="H23">
-        <v>1.427750470854591</v>
+        <v>0.6621359752503508</v>
       </c>
       <c r="I23">
-        <v>1.428259072246021</v>
+        <v>0.6967679121583217</v>
       </c>
       <c r="J23">
-        <v>0.1906439521927581</v>
+        <v>0.06765926564264824</v>
       </c>
       <c r="K23">
-        <v>0.7067132404868062</v>
+        <v>1.619139851692012</v>
       </c>
       <c r="L23">
-        <v>0.3692945891703516</v>
+        <v>0.2682017505822927</v>
       </c>
       <c r="M23">
-        <v>0.2924777100926335</v>
+        <v>0.3731484142507142</v>
       </c>
       <c r="N23">
-        <v>2.59730625847693</v>
+        <v>1.045094102282714</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9179237262096649</v>
+        <v>1.476805773566724</v>
       </c>
       <c r="C24">
-        <v>0.06161738008965756</v>
+        <v>0.1391151067118557</v>
       </c>
       <c r="D24">
-        <v>0.09982117557015613</v>
+        <v>0.06828039346606118</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.276871547191377</v>
+        <v>1.226751863286722</v>
       </c>
       <c r="G24">
-        <v>1.595100420634921</v>
+        <v>0.9414194129964244</v>
       </c>
       <c r="H24">
-        <v>1.43421653124129</v>
+        <v>0.6467489619747511</v>
       </c>
       <c r="I24">
-        <v>1.435473544151201</v>
+        <v>0.6818597323618931</v>
       </c>
       <c r="J24">
-        <v>0.1919549129401652</v>
+        <v>0.06938073958150781</v>
       </c>
       <c r="K24">
-        <v>0.6434625925202795</v>
+        <v>1.381577699174585</v>
       </c>
       <c r="L24">
-        <v>0.3645387512169549</v>
+        <v>0.2407951682202594</v>
       </c>
       <c r="M24">
-        <v>0.2806573502902836</v>
+        <v>0.3229661255649816</v>
       </c>
       <c r="N24">
-        <v>2.630278531902334</v>
+        <v>1.122889721461316</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8513085153765303</v>
+        <v>1.215036606441913</v>
       </c>
       <c r="C25">
-        <v>0.05474443172397514</v>
+        <v>0.1171315262067907</v>
       </c>
       <c r="D25">
-        <v>0.09783756880555217</v>
+        <v>0.05869739253795103</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.281096702722849</v>
+        <v>1.16129195776729</v>
       </c>
       <c r="G25">
-        <v>1.597136819949853</v>
+        <v>0.8872477300003823</v>
       </c>
       <c r="H25">
-        <v>1.443071529938464</v>
+        <v>0.6341265978629878</v>
       </c>
       <c r="I25">
-        <v>1.445305480050109</v>
+        <v>0.6704087664825309</v>
       </c>
       <c r="J25">
-        <v>0.1935099122984614</v>
+        <v>0.07144622970339043</v>
       </c>
       <c r="K25">
-        <v>0.5760401749871562</v>
+        <v>1.128965536778935</v>
       </c>
       <c r="L25">
-        <v>0.359893860218051</v>
+        <v>0.2122009049352016</v>
       </c>
       <c r="M25">
-        <v>0.2683181610409378</v>
+        <v>0.2698872069442757</v>
       </c>
       <c r="N25">
-        <v>2.668526019250489</v>
+        <v>1.212723258657849</v>
       </c>
       <c r="O25">
         <v>0</v>
